--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{App,[x1..xn]}}.BottomUpIncrementalSolve.Test-1.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{App,[x1..xn]}}.BottomUpIncrementalSolve.Test-1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="24200" windowHeight="15000" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="24200" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Abs{x,Tree{App,(x1..xn)}}.Botto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -502,8 +502,8 @@
         <v>79.959833333333293</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>3.75188375830365E-2</v>
+        <f>C$9/D2</f>
+        <v>819.59900700143237</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -536,8 +536,8 @@
         <v>56.653444444444403</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>0.26476766147395198</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>1156.7699129796961</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1.1179584147073645</v>
+        <v>1162.9429318705895</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>4.4232010870088985</v>
+        <v>1136.7626793612869</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>16.230509550210229</v>
+        <v>1039.7521440596554</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -673,7 +673,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>45.119133242536016</v>
+        <v>722.07140343091521</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>81.402132646770212</v>
+        <v>325.62343667253162</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>21.227888777184244</v>
+        <v>909.07450219658676</v>
       </c>
     </row>
   </sheetData>
